--- a/biology/Mycologie/Pietro_Romualdo_Pirotta/Pietro_Romualdo_Pirotta.xlsx
+++ b/biology/Mycologie/Pietro_Romualdo_Pirotta/Pietro_Romualdo_Pirotta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro Romualdo Pirotta (né en 1853 à Pavie, dans l'actuelle région Lombardie, alors dans le royaume lombard-vénitien et mort à Rome en 1936) est un naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inscrit d'abord à la faculté de médecine de l'université de Pavie, Pietro Romualdo Pirotta s'inscrit ensuite à celle de sciences naturelles où il est diplômé le 29 juillet 1875. Il reçoit un poste pour enseigner les sciences naturelles dans le lycée de Pistoia, il préfère travailler au laboratoire de mycologie, une annexe de l’Institut de botanique de l'université de Pavie.
 En 1879, il obtient un prix pour poursuivre ses études à l’institut de mycologie de l'université de Strasbourg. Rentré en Italie, il réussit les concours lui permettant d’accéder à des postes à l'université de Sassari et à celle de Modène, il choisit cette dernière et y dirige, en outre le jardin botanique.
@@ -547,7 +561,9 @@
           <t>Son apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue trois périodes distinctes dans sa carrière. Dans la première il s'occupe de recherche en microbiologie et cryptogamie, en découvrant entre autres la Plasmopara viticola nouvellement introduite en Italie. La seconde période est marquée par ses travaux en histologie et en physiologie sur les téguments de la graine, sur la formation des réservoirs mucipari⇔caliciformes et des canaux laticifères, et sur la morphologie foliaire. Enfin, il s'intéresse à la biologie moléculaire, à la transmission des caractères héréditaires et à la génétique, sans négliger la systématique de la flore tant italienne qu'africaine.
 </t>
